--- a/images/___images_sizing.xlsx
+++ b/images/___images_sizing.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B455F384-6DA5-814C-BC0A-BE392BB430DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEDAFA5-C649-B543-99E3-6D0472375C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="500" windowWidth="26740" windowHeight="15500" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -391,7 +391,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -409,11 +409,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="B2">
         <f>$B$1/$A$1*A2</f>
-        <v>224.68750000000003</v>
+        <v>337.03125</v>
       </c>
     </row>
   </sheetData>

--- a/images/___images_sizing.xlsx
+++ b/images/___images_sizing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEDAFA5-C649-B543-99E3-6D0472375C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A05B347-96E4-984E-8763-870A330A6AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="500" windowWidth="26740" windowHeight="15500" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="26740" windowHeight="15500" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,11 +409,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>600</v>
+        <v>760</v>
       </c>
       <c r="B2">
         <f>$B$1/$A$1*A2</f>
-        <v>337.03125</v>
+        <v>426.90625000000006</v>
       </c>
     </row>
   </sheetData>

--- a/images/___images_sizing.xlsx
+++ b/images/___images_sizing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtap/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A05B347-96E4-984E-8763-870A330A6AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B9DAA0-33E0-8B47-9F72-534F93C91FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="500" windowWidth="26740" windowHeight="15500" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
+    <workbookView xWindow="10400" yWindow="1760" windowWidth="26740" windowHeight="15500" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -52,12 +50,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,8 +82,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,32 +400,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B0F30E-3D84-5F43-92C4-C4F68DFD6FED}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1280</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>1000</v>
       </c>
       <c r="B1">
-        <v>719</v>
+        <v>500</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
+      <c r="G1">
+        <v>690</v>
+      </c>
+      <c r="H1">
+        <v>1121</v>
+      </c>
+      <c r="I1">
+        <v>1000</v>
+      </c>
+      <c r="J1">
+        <v>1000</v>
+      </c>
+      <c r="K1">
+        <v>712</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>760</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>562</v>
+      </c>
+      <c r="B2" s="2">
         <f>$B$1/$A$1*A2</f>
-        <v>426.90625000000006</v>
+        <v>281</v>
+      </c>
+      <c r="G2">
+        <v>387</v>
+      </c>
+      <c r="H2">
+        <v>630</v>
+      </c>
+      <c r="I2">
+        <v>560</v>
+      </c>
+      <c r="J2">
+        <v>562</v>
+      </c>
+      <c r="K2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>A1/A2</f>
+        <v>1.7793594306049823</v>
+      </c>
+      <c r="B4">
+        <f>B1/B2</f>
+        <v>1.7793594306049823</v>
+      </c>
+      <c r="G4">
+        <f>G1/G2</f>
+        <v>1.7829457364341086</v>
+      </c>
+      <c r="H4">
+        <f>H1/H2</f>
+        <v>1.7793650793650793</v>
+      </c>
+      <c r="I4">
+        <f>I1/I2</f>
+        <v>1.7857142857142858</v>
+      </c>
+      <c r="J4">
+        <f>J1/J2</f>
+        <v>1.7793594306049823</v>
+      </c>
+      <c r="K4">
+        <f>K1/K2</f>
+        <v>1.78</v>
       </c>
     </row>
   </sheetData>

--- a/images/___images_sizing.xlsx
+++ b/images/___images_sizing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtap/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B9DAA0-33E0-8B47-9F72-534F93C91FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDE5FDA-067C-B94A-9844-648E5F29481E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10400" yWindow="1760" windowWidth="26740" windowHeight="15500" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
+    <workbookView xWindow="7820" yWindow="1760" windowWidth="26740" windowHeight="15500" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,18 +50,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -85,7 +79,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,17 +397,17 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>1000</v>
+      <c r="A1" s="2">
+        <v>1280</v>
       </c>
       <c r="B1">
-        <v>500</v>
+        <v>719</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -435,12 +429,12 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>562</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="2">
+        <v>200</v>
+      </c>
+      <c r="B2" s="1">
         <f>$B$1/$A$1*A2</f>
-        <v>281</v>
+        <v>112.34375000000001</v>
       </c>
       <c r="G2">
         <v>387</v>
@@ -461,11 +455,11 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>A1/A2</f>
-        <v>1.7793594306049823</v>
+        <v>6.4</v>
       </c>
       <c r="B4">
         <f>B1/B2</f>
-        <v>1.7793594306049823</v>
+        <v>6.3999999999999995</v>
       </c>
       <c r="G4">
         <f>G1/G2</f>

--- a/images/___images_sizing.xlsx
+++ b/images/___images_sizing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtap/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDE5FDA-067C-B94A-9844-648E5F29481E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29001C0-7965-2842-A72A-32AF2D117408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7820" yWindow="1760" windowWidth="26740" windowHeight="15500" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -32,18 +32,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>aspect ratio of photos</t>
+    <t>aspect ratio</t>
+  </si>
+  <si>
+    <t>change yellow field!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -59,7 +77,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -76,10 +94,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,91 +415,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B0F30E-3D84-5F43-92C4-C4F68DFD6FED}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="2">
-        <v>1280</v>
-      </c>
-      <c r="B1">
-        <v>719</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>920</v>
+      </c>
+      <c r="B3" s="4">
+        <f>A3/1.78</f>
+        <v>516.85393258426961</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <f>B4*A9</f>
+        <v>1406.2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="G1">
-        <v>690</v>
-      </c>
-      <c r="H1">
-        <v>1121</v>
-      </c>
-      <c r="I1">
-        <v>1000</v>
-      </c>
-      <c r="J1">
-        <v>1000</v>
-      </c>
-      <c r="K1">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>200</v>
-      </c>
-      <c r="B2" s="1">
-        <f>$B$1/$A$1*A2</f>
-        <v>112.34375000000001</v>
-      </c>
-      <c r="G2">
-        <v>387</v>
-      </c>
-      <c r="H2">
-        <v>630</v>
-      </c>
-      <c r="I2">
-        <v>560</v>
-      </c>
-      <c r="J2">
-        <v>562</v>
-      </c>
-      <c r="K2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <f>A1/A2</f>
-        <v>6.4</v>
-      </c>
-      <c r="B4">
-        <f>B1/B2</f>
-        <v>6.3999999999999995</v>
-      </c>
-      <c r="G4">
-        <f>G1/G2</f>
-        <v>1.7829457364341086</v>
-      </c>
-      <c r="H4">
-        <f>H1/H2</f>
-        <v>1.7793650793650793</v>
-      </c>
-      <c r="I4">
-        <f>I1/I2</f>
-        <v>1.7857142857142858</v>
-      </c>
-      <c r="J4">
-        <f>J1/J2</f>
-        <v>1.7793594306049823</v>
-      </c>
-      <c r="K4">
-        <f>K1/K2</f>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>1.78</v>
       </c>
     </row>

--- a/images/___images_sizing.xlsx
+++ b/images/___images_sizing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtap/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29001C0-7965-2842-A72A-32AF2D117408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F7F222-E2C2-BB46-874F-C70D1FDCB204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7820" yWindow="1760" windowWidth="26740" windowHeight="15500" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -418,7 +418,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,11 +437,11 @@
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>920</v>
+        <v>2521</v>
       </c>
       <c r="B3" s="4">
         <f>A3/1.78</f>
-        <v>516.85393258426961</v>
+        <v>1416.2921348314605</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>1</v>

--- a/images/___images_sizing.xlsx
+++ b/images/___images_sizing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtap/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F7F222-E2C2-BB46-874F-C70D1FDCB204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4ED7789-51DE-6E40-903A-32C577B51471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7820" yWindow="1760" windowWidth="26740" windowHeight="15500" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -94,12 +94,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -119,7 +117,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -407,7 +405,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -418,7 +416,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -429,30 +427,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>2521</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>585</v>
+      </c>
+      <c r="B3" s="3">
         <f>A3/1.78</f>
-        <v>1416.2921348314605</v>
-      </c>
-      <c r="E3" s="5" t="s">
+        <v>328.65168539325845</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <f>B4*A9</f>
         <v>1406.2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>790</v>
       </c>
     </row>

--- a/images/___images_sizing.xlsx
+++ b/images/___images_sizing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtap/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4ED7789-51DE-6E40-903A-32C577B51471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F22741-8887-B742-A353-E61B4A06914E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7820" yWindow="1760" windowWidth="26740" windowHeight="15500" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -23,8 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -117,7 +121,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -405,7 +409,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -435,11 +439,11 @@
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>585</v>
+        <v>1250</v>
       </c>
       <c r="B3" s="3">
         <f>A3/1.78</f>
-        <v>328.65168539325845</v>
+        <v>702.24719101123594</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>1</v>
@@ -447,8 +451,7 @@
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <f>B4*A9</f>
-        <v>1406.2</v>
+        <v>1250</v>
       </c>
       <c r="B4" s="2">
         <v>790</v>

--- a/images/___images_sizing.xlsx
+++ b/images/___images_sizing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtap/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F22741-8887-B742-A353-E61B4A06914E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BA0018-9C17-2446-B090-412FE203BF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7820" yWindow="1760" windowWidth="26740" windowHeight="15500" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,11 +439,11 @@
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>1250</v>
+        <v>1800</v>
       </c>
       <c r="B3" s="3">
         <f>A3/1.78</f>
-        <v>702.24719101123594</v>
+        <v>1011.2359550561797</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>1</v>
@@ -451,7 +451,8 @@
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>1250</v>
+        <f>1.78*B4</f>
+        <v>1406.2</v>
       </c>
       <c r="B4" s="2">
         <v>790</v>

--- a/images/___images_sizing.xlsx
+++ b/images/___images_sizing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtap/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BA0018-9C17-2446-B090-412FE203BF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F99EA1-FBFC-D948-8490-FAB28CFAA703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7820" yWindow="1760" windowWidth="26740" windowHeight="15500" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,11 +439,11 @@
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="B3" s="3">
         <f>A3/1.78</f>
-        <v>1011.2359550561797</v>
+        <v>224.71910112359549</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>1</v>

--- a/images/___images_sizing.xlsx
+++ b/images/___images_sizing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtap/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F99EA1-FBFC-D948-8490-FAB28CFAA703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD321A8-874E-DD45-A8D3-D90D088E581B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7820" yWindow="1760" windowWidth="26740" windowHeight="15500" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>

--- a/images/___images_sizing.xlsx
+++ b/images/___images_sizing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtap/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD321A8-874E-DD45-A8D3-D90D088E581B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B0D46A-CF44-C044-98DD-A03C7A29DEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7820" yWindow="1760" windowWidth="26740" windowHeight="15500" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -439,11 +439,11 @@
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>400</v>
+        <v>130</v>
       </c>
       <c r="B3" s="3">
         <f>A3/1.78</f>
-        <v>224.71910112359549</v>
+        <v>73.033707865168537</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>1</v>

--- a/images/___images_sizing.xlsx
+++ b/images/___images_sizing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtap/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B0D46A-CF44-C044-98DD-A03C7A29DEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1870A252-7E0D-EF42-8BA1-5F01C0908ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7820" yWindow="1760" windowWidth="26740" windowHeight="15500" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/images/___images_sizing.xlsx
+++ b/images/___images_sizing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtap/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1870A252-7E0D-EF42-8BA1-5F01C0908ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96383CB-75B6-3045-8EA8-65B544A0E3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7820" yWindow="1760" windowWidth="26740" windowHeight="15500" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -440,11 +439,11 @@
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="B3" s="3">
         <f>A3/1.78</f>
-        <v>73.033707865168537</v>
+        <v>561.79775280898878</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>1</v>

--- a/images/___images_sizing.xlsx
+++ b/images/___images_sizing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtap/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96383CB-75B6-3045-8EA8-65B544A0E3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D570D44B-036B-C148-AE99-010B5671EEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7820" yWindow="1760" windowWidth="26740" windowHeight="15500" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -439,11 +439,11 @@
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="B3" s="3">
         <f>A3/1.78</f>
-        <v>561.79775280898878</v>
+        <v>224.71910112359549</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>1</v>

--- a/images/___images_sizing.xlsx
+++ b/images/___images_sizing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtap/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D570D44B-036B-C148-AE99-010B5671EEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFE556A-1F55-0747-BB79-40E0E2E0CF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7820" yWindow="1760" windowWidth="26740" windowHeight="15500" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -439,11 +439,11 @@
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>400</v>
+        <v>2448</v>
       </c>
       <c r="B3" s="3">
         <f>A3/1.78</f>
-        <v>224.71910112359549</v>
+        <v>1375.2808988764045</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>1</v>

--- a/images/___images_sizing.xlsx
+++ b/images/___images_sizing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtap/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFE556A-1F55-0747-BB79-40E0E2E0CF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04670DA-2634-3A4A-9792-BA989CA679AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7820" yWindow="1760" windowWidth="26740" windowHeight="15500" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -439,11 +439,11 @@
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>2448</v>
+        <v>400</v>
       </c>
       <c r="B3" s="3">
         <f>A3/1.78</f>
-        <v>1375.2808988764045</v>
+        <v>224.71910112359549</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>1</v>

--- a/images/___images_sizing.xlsx
+++ b/images/___images_sizing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtap/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04670DA-2634-3A4A-9792-BA989CA679AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6257EBBC-3C88-2E44-B397-11436C77DCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7820" yWindow="1760" windowWidth="26740" windowHeight="15500" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/images/___images_sizing.xlsx
+++ b/images/___images_sizing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtap/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6257EBBC-3C88-2E44-B397-11436C77DCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5780364-5362-7145-8E03-DAA2296B2073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7820" yWindow="1760" windowWidth="26740" windowHeight="15500" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/images/___images_sizing.xlsx
+++ b/images/___images_sizing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtap/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5780364-5362-7145-8E03-DAA2296B2073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5FD250-E0B5-FA4E-A2F5-270FA7C36E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7820" yWindow="1760" windowWidth="26740" windowHeight="15500" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,10 +452,10 @@
     <row r="4" spans="1:5" s="3" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <f>1.78*B4</f>
-        <v>1406.2</v>
+        <v>1174.8</v>
       </c>
       <c r="B4" s="2">
-        <v>790</v>
+        <v>660</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
